--- a/outputs-HGR-r202/test-g__Fusobacterium_A_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Fusobacterium_A_split_pruned.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Row</t>
   </si>
   <si>
     <t>even_MAG-GUT88654.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT88709.fa</t>
   </si>
   <si>
     <t>1-s__Fusobacterium_A mortiferum</t>
@@ -97,10 +100,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="true"/>
+    <col min="1" max="1" width="22.42578125" customWidth="true"/>
     <col min="2" max="2" width="31.85546875" customWidth="true"/>
     <col min="3" max="3" width="32.5703125" customWidth="true"/>
     <col min="4" max="4" width="32.5703125" customWidth="true"/>
@@ -118,34 +121,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -183,6 +186,41 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.030404920623736804</v>
+      </c>
+      <c r="C3">
+        <v>0.16159750793872596</v>
+      </c>
+      <c r="D3">
+        <v>0.058258453722631463</v>
+      </c>
+      <c r="E3">
+        <v>0.54620217425226136</v>
+      </c>
+      <c r="F3">
+        <v>0.016000842658421652</v>
+      </c>
+      <c r="G3">
+        <v>0.14480666374323461</v>
+      </c>
+      <c r="H3">
+        <v>0.0087858866041117638</v>
+      </c>
+      <c r="I3">
+        <v>0.032877448054329281</v>
+      </c>
+      <c r="J3">
+        <v>0.0010661024025471672</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>